--- a/home.htm.xlsx
+++ b/home.htm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\brett\Documents\HomePage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\brett\Projects\GitHub\HomePage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AF462BA4-08E4-46F5-8714-5AC869C3D276}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B5C9B436-98C7-4234-BAD6-2D5A8D1E6774}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{AD369AE6-79CD-499F-A6DD-9C0A09FD897A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Home Page</t>
   </si>
@@ -630,7 +630,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +719,9 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -996,8 +998,9 @@
     <hyperlink ref="D6" r:id="rId2" xr:uid="{748EAA15-2D49-46DC-BAA5-7B5A9075CDB7}"/>
     <hyperlink ref="A7" r:id="rId3" xr:uid="{A6F4E925-DED1-4579-B176-C584DF12FEDD}"/>
     <hyperlink ref="A8" r:id="rId4" xr:uid="{6372489E-45F2-40ED-A5D6-F21F420AABE1}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{9EC91D97-AD34-4432-A3C7-B149AADADFB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId5"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>